--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/utilities/run_no=0.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/utilities/run_no=0.xlsx
@@ -518,49 +518,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G2" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="K2" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M2" t="n">
         <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="O2" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -570,49 +570,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>51</v>
+      </c>
+      <c r="F3" t="n">
+        <v>64</v>
+      </c>
+      <c r="G3" t="n">
+        <v>78</v>
+      </c>
+      <c r="H3" t="n">
+        <v>55</v>
+      </c>
+      <c r="I3" t="n">
+        <v>53</v>
+      </c>
+      <c r="J3" t="n">
+        <v>65</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" t="n">
         <v>49</v>
       </c>
-      <c r="E3" t="n">
-        <v>87</v>
-      </c>
-      <c r="F3" t="n">
-        <v>76</v>
-      </c>
-      <c r="G3" t="n">
-        <v>79</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>82</v>
-      </c>
-      <c r="J3" t="n">
-        <v>99</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>48</v>
       </c>
-      <c r="L3" t="n">
-        <v>41</v>
-      </c>
-      <c r="M3" t="n">
-        <v>38</v>
-      </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="O3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -622,49 +622,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
+        <v>65</v>
+      </c>
+      <c r="J4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15</v>
+      </c>
+      <c r="L4" t="n">
+        <v>58</v>
+      </c>
+      <c r="M4" t="n">
         <v>57</v>
       </c>
-      <c r="J4" t="n">
-        <v>92</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45</v>
-      </c>
-      <c r="L4" t="n">
-        <v>27</v>
-      </c>
-      <c r="M4" t="n">
-        <v>24</v>
-      </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="O4" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -674,49 +674,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>35</v>
+      </c>
+      <c r="F5" t="n">
+        <v>59</v>
+      </c>
+      <c r="G5" t="n">
+        <v>77</v>
+      </c>
+      <c r="H5" t="n">
         <v>44</v>
       </c>
-      <c r="D5" t="n">
-        <v>49</v>
-      </c>
-      <c r="E5" t="n">
-        <v>88</v>
-      </c>
-      <c r="F5" t="n">
-        <v>71</v>
-      </c>
-      <c r="G5" t="n">
-        <v>73</v>
-      </c>
-      <c r="H5" t="n">
-        <v>71</v>
-      </c>
       <c r="I5" t="n">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="K5" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="O5" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -726,49 +726,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>70</v>
+      </c>
+      <c r="H6" t="n">
+        <v>47</v>
+      </c>
+      <c r="I6" t="n">
+        <v>46</v>
+      </c>
+      <c r="J6" t="n">
+        <v>55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12</v>
+      </c>
+      <c r="L6" t="n">
+        <v>33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>32</v>
+      </c>
+      <c r="N6" t="n">
+        <v>98</v>
+      </c>
+      <c r="O6" t="n">
         <v>76</v>
       </c>
-      <c r="G6" t="n">
-        <v>82</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>97</v>
-      </c>
-      <c r="K6" t="n">
-        <v>48</v>
-      </c>
-      <c r="L6" t="n">
-        <v>46</v>
-      </c>
-      <c r="M6" t="n">
-        <v>38</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>97</v>
-      </c>
       <c r="P6" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -778,49 +778,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>41</v>
+      </c>
+      <c r="F7" t="n">
+        <v>65</v>
+      </c>
+      <c r="G7" t="n">
         <v>78</v>
       </c>
-      <c r="E7" t="n">
-        <v>92</v>
-      </c>
-      <c r="F7" t="n">
-        <v>85</v>
-      </c>
-      <c r="G7" t="n">
-        <v>88</v>
-      </c>
       <c r="H7" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="I7" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="J7" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="K7" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="O7" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -830,49 +830,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G8" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H8" t="n">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I8" t="n">
+        <v>47</v>
+      </c>
+      <c r="J8" t="n">
+        <v>62</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>45</v>
+      </c>
+      <c r="M8" t="n">
+        <v>32</v>
+      </c>
+      <c r="N8" t="n">
+        <v>90</v>
+      </c>
+      <c r="O8" t="n">
         <v>88</v>
       </c>
-      <c r="J8" t="n">
-        <v>99</v>
-      </c>
-      <c r="K8" t="n">
-        <v>63</v>
-      </c>
-      <c r="L8" t="n">
-        <v>49</v>
-      </c>
-      <c r="M8" t="n">
-        <v>22</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>95</v>
-      </c>
       <c r="P8" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -882,49 +882,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C9" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" t="n">
+        <v>42</v>
+      </c>
+      <c r="E9" t="n">
+        <v>37</v>
+      </c>
+      <c r="F9" t="n">
+        <v>85</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>53</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L9" t="n">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>31</v>
+      </c>
+      <c r="O9" t="n">
         <v>73</v>
       </c>
-      <c r="D9" t="n">
-        <v>93</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>90</v>
-      </c>
-      <c r="G9" t="n">
-        <v>85</v>
-      </c>
-      <c r="H9" t="n">
-        <v>74</v>
-      </c>
-      <c r="I9" t="n">
-        <v>72</v>
-      </c>
-      <c r="J9" t="n">
-        <v>39</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11</v>
-      </c>
-      <c r="L9" t="n">
-        <v>33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>85</v>
-      </c>
-      <c r="N9" t="n">
-        <v>87</v>
-      </c>
-      <c r="O9" t="n">
-        <v>38</v>
-      </c>
       <c r="P9" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -934,49 +934,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H10" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I10" t="n">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K10" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L10" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="P10" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -986,49 +986,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C11" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
+        <v>73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>95</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18</v>
+      </c>
+      <c r="H11" t="n">
+        <v>46</v>
+      </c>
+      <c r="I11" t="n">
+        <v>76</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L11" t="n">
         <v>100</v>
       </c>
-      <c r="E11" t="n">
-        <v>31</v>
-      </c>
-      <c r="F11" t="n">
-        <v>79</v>
-      </c>
-      <c r="G11" t="n">
-        <v>65</v>
-      </c>
-      <c r="H11" t="n">
-        <v>52</v>
-      </c>
-      <c r="I11" t="n">
-        <v>45</v>
-      </c>
-      <c r="J11" t="n">
-        <v>36</v>
-      </c>
-      <c r="K11" t="n">
-        <v>25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>29</v>
-      </c>
       <c r="M11" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="N11" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="P11" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -1038,49 +1038,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C12" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I12" t="n">
+        <v>64</v>
+      </c>
+      <c r="J12" t="n">
+        <v>24</v>
+      </c>
+      <c r="K12" t="n">
+        <v>25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>100</v>
+      </c>
+      <c r="M12" t="n">
+        <v>25</v>
+      </c>
+      <c r="N12" t="n">
+        <v>25</v>
+      </c>
+      <c r="O12" t="n">
         <v>97</v>
       </c>
-      <c r="J12" t="n">
-        <v>34</v>
-      </c>
-      <c r="K12" t="n">
-        <v>32</v>
-      </c>
-      <c r="L12" t="n">
-        <v>54</v>
-      </c>
-      <c r="M12" t="n">
-        <v>12</v>
-      </c>
-      <c r="N12" t="n">
-        <v>23</v>
-      </c>
-      <c r="O12" t="n">
-        <v>16</v>
-      </c>
       <c r="P12" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1090,49 +1090,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C13" t="n">
+        <v>52</v>
+      </c>
+      <c r="D13" t="n">
+        <v>51</v>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
         <v>83</v>
       </c>
-      <c r="D13" t="n">
-        <v>69</v>
-      </c>
-      <c r="E13" t="n">
-        <v>83</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I13" t="n">
+        <v>52</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12</v>
+      </c>
+      <c r="L13" t="n">
         <v>86</v>
-      </c>
-      <c r="J13" t="n">
-        <v>36</v>
-      </c>
-      <c r="K13" t="n">
-        <v>33</v>
-      </c>
-      <c r="L13" t="n">
-        <v>71</v>
       </c>
       <c r="M13" t="n">
         <v>11</v>
       </c>
       <c r="N13" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="O13" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="P13" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -1142,49 +1142,49 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" t="n">
+        <v>60</v>
+      </c>
+      <c r="D14" t="n">
+        <v>49</v>
+      </c>
+      <c r="E14" t="n">
+        <v>35</v>
+      </c>
+      <c r="F14" t="n">
+        <v>74</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17</v>
+      </c>
+      <c r="H14" t="n">
+        <v>26</v>
+      </c>
+      <c r="I14" t="n">
+        <v>55</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19</v>
+      </c>
+      <c r="K14" t="n">
+        <v>22</v>
+      </c>
+      <c r="L14" t="n">
+        <v>96</v>
+      </c>
+      <c r="M14" t="n">
+        <v>20</v>
+      </c>
+      <c r="N14" t="n">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" t="n">
-        <v>90</v>
-      </c>
-      <c r="E14" t="n">
-        <v>47</v>
-      </c>
-      <c r="F14" t="n">
-        <v>56</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16</v>
-      </c>
-      <c r="H14" t="n">
-        <v>47</v>
-      </c>
-      <c r="I14" t="n">
-        <v>24</v>
-      </c>
-      <c r="J14" t="n">
-        <v>28</v>
-      </c>
-      <c r="K14" t="n">
-        <v>94</v>
-      </c>
-      <c r="L14" t="n">
-        <v>68</v>
-      </c>
-      <c r="M14" t="n">
-        <v>55</v>
-      </c>
-      <c r="N14" t="n">
-        <v>94</v>
-      </c>
       <c r="O14" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -1194,49 +1194,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G15" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I15" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" t="n">
         <v>26</v>
       </c>
       <c r="L15" t="n">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="M15" t="n">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="N15" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="O15" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -1246,49 +1246,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C16" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E16" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G16" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I16" t="n">
+        <v>55</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>26</v>
+      </c>
+      <c r="L16" t="n">
         <v>89</v>
       </c>
-      <c r="J16" t="n">
-        <v>69</v>
-      </c>
-      <c r="K16" t="n">
-        <v>62</v>
-      </c>
-      <c r="L16" t="n">
-        <v>80</v>
-      </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O16" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="P16" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/utilities/run_no=0.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/utilities/run_no=0.xlsx
@@ -518,49 +518,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E2" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E2" t="n">
-        <v>44</v>
-      </c>
-      <c r="F2" t="n">
-        <v>57</v>
-      </c>
       <c r="G2" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N2" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O2" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="P2" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -570,49 +570,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>69</v>
+      </c>
+      <c r="F3" t="n">
         <v>11</v>
       </c>
-      <c r="E3" t="n">
-        <v>51</v>
-      </c>
-      <c r="F3" t="n">
-        <v>64</v>
-      </c>
       <c r="G3" t="n">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
+        <v>42</v>
+      </c>
+      <c r="I3" t="n">
+        <v>37</v>
+      </c>
+      <c r="J3" t="n">
+        <v>97</v>
+      </c>
+      <c r="K3" t="n">
+        <v>26</v>
+      </c>
+      <c r="L3" t="n">
+        <v>80</v>
+      </c>
+      <c r="M3" t="n">
         <v>55</v>
       </c>
-      <c r="I3" t="n">
-        <v>53</v>
-      </c>
-      <c r="J3" t="n">
-        <v>65</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>88</v>
+      </c>
+      <c r="O3" t="n">
+        <v>39</v>
+      </c>
+      <c r="P3" t="n">
         <v>49</v>
-      </c>
-      <c r="M3" t="n">
-        <v>48</v>
-      </c>
-      <c r="N3" t="n">
-        <v>97</v>
-      </c>
-      <c r="O3" t="n">
-        <v>90</v>
-      </c>
-      <c r="P3" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -622,49 +622,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>62</v>
+      </c>
+      <c r="I4" t="n">
         <v>17</v>
       </c>
-      <c r="E4" t="n">
-        <v>65</v>
-      </c>
-      <c r="F4" t="n">
-        <v>77</v>
-      </c>
-      <c r="G4" t="n">
-        <v>82</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>65</v>
-      </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="M4" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O4" t="n">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="P4" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -674,49 +674,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F5" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O5" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="P5" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -726,49 +726,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L6" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
+        <v>54</v>
+      </c>
+      <c r="N6" t="n">
+        <v>84</v>
+      </c>
+      <c r="O6" t="n">
         <v>32</v>
       </c>
-      <c r="N6" t="n">
-        <v>98</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76</v>
-      </c>
       <c r="P6" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -778,49 +778,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
+        <v>42</v>
+      </c>
+      <c r="E7" t="n">
+        <v>54</v>
+      </c>
+      <c r="F7" t="n">
         <v>13</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>27</v>
+      </c>
+      <c r="H7" t="n">
+        <v>49</v>
+      </c>
+      <c r="I7" t="n">
         <v>41</v>
       </c>
-      <c r="F7" t="n">
-        <v>65</v>
-      </c>
-      <c r="G7" t="n">
-        <v>78</v>
-      </c>
-      <c r="H7" t="n">
-        <v>62</v>
-      </c>
-      <c r="I7" t="n">
-        <v>52</v>
-      </c>
       <c r="J7" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L7" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="M7" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N7" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O7" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="P7" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -830,49 +830,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15</v>
+      </c>
+      <c r="H8" t="n">
         <v>55</v>
       </c>
-      <c r="G8" t="n">
-        <v>72</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>98</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>65</v>
+      </c>
+      <c r="M8" t="n">
+        <v>56</v>
+      </c>
+      <c r="N8" t="n">
+        <v>95</v>
+      </c>
+      <c r="O8" t="n">
         <v>53</v>
       </c>
-      <c r="I8" t="n">
-        <v>47</v>
-      </c>
-      <c r="J8" t="n">
-        <v>62</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>45</v>
-      </c>
-      <c r="M8" t="n">
-        <v>32</v>
-      </c>
-      <c r="N8" t="n">
-        <v>90</v>
-      </c>
-      <c r="O8" t="n">
-        <v>88</v>
-      </c>
       <c r="P8" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -882,49 +882,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H9" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I9" t="n">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="K9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L9" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="N9" t="n">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="O9" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P9" t="n">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -934,49 +934,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
+        <v>35</v>
+      </c>
+      <c r="I10" t="n">
+        <v>95</v>
+      </c>
+      <c r="J10" t="n">
+        <v>83</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" t="n">
         <v>47</v>
       </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>36</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
+        <v>96</v>
+      </c>
+      <c r="O10" t="n">
+        <v>58</v>
+      </c>
+      <c r="P10" t="n">
         <v>51</v>
-      </c>
-      <c r="L10" t="n">
-        <v>26</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>41</v>
-      </c>
-      <c r="O10" t="n">
-        <v>9</v>
-      </c>
-      <c r="P10" t="n">
-        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -986,49 +986,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F11" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="I11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>85</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60</v>
+      </c>
+      <c r="L11" t="n">
+        <v>93</v>
+      </c>
+      <c r="M11" t="n">
+        <v>42</v>
+      </c>
+      <c r="N11" t="n">
+        <v>20</v>
+      </c>
+      <c r="O11" t="n">
+        <v>94</v>
+      </c>
+      <c r="P11" t="n">
         <v>76</v>
-      </c>
-      <c r="J11" t="n">
-        <v>18</v>
-      </c>
-      <c r="K11" t="n">
-        <v>30</v>
-      </c>
-      <c r="L11" t="n">
-        <v>100</v>
-      </c>
-      <c r="M11" t="n">
-        <v>18</v>
-      </c>
-      <c r="N11" t="n">
-        <v>43</v>
-      </c>
-      <c r="O11" t="n">
-        <v>80</v>
-      </c>
-      <c r="P11" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -1038,49 +1038,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E12" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26</v>
+      </c>
+      <c r="H12" t="n">
         <v>32</v>
       </c>
-      <c r="F12" t="n">
-        <v>98</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28</v>
-      </c>
       <c r="I12" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J12" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N12" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="O12" t="n">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="P12" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1090,49 +1090,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C13" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F13" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="H13" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I13" t="n">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="L13" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="M13" t="n">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="N13" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="O13" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="P13" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -1142,49 +1142,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F14" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20</v>
+      </c>
+      <c r="H14" t="n">
+        <v>67</v>
+      </c>
+      <c r="I14" t="n">
+        <v>90</v>
+      </c>
+      <c r="J14" t="n">
         <v>74</v>
       </c>
-      <c r="G14" t="n">
+      <c r="K14" t="n">
+        <v>15</v>
+      </c>
+      <c r="L14" t="n">
+        <v>98</v>
+      </c>
+      <c r="M14" t="n">
+        <v>53</v>
+      </c>
+      <c r="N14" t="n">
+        <v>98</v>
+      </c>
+      <c r="O14" t="n">
         <v>17</v>
       </c>
-      <c r="H14" t="n">
-        <v>26</v>
-      </c>
-      <c r="I14" t="n">
-        <v>55</v>
-      </c>
-      <c r="J14" t="n">
-        <v>19</v>
-      </c>
-      <c r="K14" t="n">
-        <v>22</v>
-      </c>
-      <c r="L14" t="n">
-        <v>96</v>
-      </c>
-      <c r="M14" t="n">
-        <v>20</v>
-      </c>
-      <c r="N14" t="n">
-        <v>24</v>
-      </c>
-      <c r="O14" t="n">
-        <v>62</v>
-      </c>
       <c r="P14" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -1194,49 +1194,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F15" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I15" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="J15" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="K15" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M15" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N15" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="O15" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -1246,49 +1246,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F16" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G16" t="n">
+        <v>39</v>
+      </c>
+      <c r="H16" t="n">
+        <v>37</v>
+      </c>
+      <c r="I16" t="n">
+        <v>86</v>
+      </c>
+      <c r="J16" t="n">
+        <v>73</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>29</v>
-      </c>
-      <c r="I16" t="n">
-        <v>55</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>26</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
+        <v>49</v>
+      </c>
+      <c r="N16" t="n">
         <v>89</v>
       </c>
-      <c r="M16" t="n">
-        <v>15</v>
-      </c>
-      <c r="N16" t="n">
-        <v>26</v>
-      </c>
       <c r="O16" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P16" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
